--- a/src/data/Confluence_Extended_Dictionary.xlsx
+++ b/src/data/Confluence_Extended_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahearntu\AppData\Local\Box\Box for Office\6954560291\Temp\t5xc0sce.v2b\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahearntu\AppData\Local\Box\Box Edit\Documents\iBiDhwb0H0qqly1mFsaTGQ==\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6128C643-B851-423A-BF3B-EBB2700BA16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F2EF23CC-566F-4908-B876-C0F158D81114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE4C9A32-F3D7-4A32-97DD-5C649C395282}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="835" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CORE" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,9 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -43,6 +46,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,9 +54,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="580">
   <si>
     <t>CONFLUENCE COVARIATE DATA DICTIONARY - CORE VARIABLES</t>
+  </si>
+  <si>
+    <t>Version 2.0 (Jan 2024)  (BCAC V4.0 (Mar 2022))</t>
   </si>
   <si>
     <t>Category</t>
@@ -348,10 +355,28 @@
 888=DK</t>
   </si>
   <si>
+    <t>EthnicityClass_recode</t>
+  </si>
+  <si>
+    <t>1=European (for EthnicitySubClass 1, 2, 3, 4, 5), 
+2=Latinx / Caribbean / Admixed American (for EthnicitySubClass 6, 17),
+3=African (for EthnicitySubClass 7, 8, 9), 
+4=Asian (for EthnicitySubClass 10, 11, 12, 13, 14, 15), 
+6=Other (including 'mixed race'), 
+888=DK</t>
+  </si>
+  <si>
+    <t>Recode of EthnicityClass, combinces Asian Subcontinent and South-East Asian categories</t>
+  </si>
+  <si>
     <t>EthnicitySubClass</t>
   </si>
   <si>
     <t>Ethnic origin (refined)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1=Northern European, 2=Southern European, 3=Western European, 4=Eastern European, 5=American European, 6=Hispanic Latinx, 7=African (Africa), 8=Carribbean African, 9=American African, 10=South Asia Indian, 11=Pakistani, 12=East and West Bengali, 13=Chinese, 14=Malaysian Peninsula, 15=Japanese, 16=Other (including 'mixed race'), 888=DK, 17=Caribbean Latinx 
+</t>
   </si>
   <si>
     <t xml:space="preserve">(1) If EthnicityClass=1, then EthnicitySubClass should be 1, 2, 3, 4, 5, or 888. 
@@ -1203,16 +1228,19 @@
     <t>Text field with those 8 groups only; data submitted by study in its original form</t>
   </si>
   <si>
-    <t>(see comments)</t>
-  </si>
-  <si>
     <t>MorphologyGroup2</t>
   </si>
   <si>
     <t>Ductal, Lobular, Mixed (ductal &amp; lobular), Medullary, Tubular, Papillary, Mucinous, Other, 777=NA, 888=DK</t>
   </si>
   <si>
+    <t>MorphologyGroupIndex</t>
+  </si>
+  <si>
     <t>(see comments) for index tumour</t>
+  </si>
+  <si>
+    <t>This variable is derived from [MorphologyGroup1] or [MorphologyGroup2] using variable [Index]</t>
   </si>
   <si>
     <t>NodeStatus1</t>
@@ -1435,6 +1463,9 @@
     <t>SizeIndex_Cat_derived</t>
   </si>
   <si>
+    <t>(see comments)</t>
+  </si>
+  <si>
     <t>Where [SizeIndex_Cat] is unknown, this variable is derived using [SizeGroupIndex] where [SizeGroupIndex] = 1, 2 or 3</t>
   </si>
   <si>
@@ -1734,6 +1765,9 @@
     <t>YearsToLocoregionalRelapse</t>
   </si>
   <si>
+    <t>Time in years between diagnosis and locoregional relapse</t>
+  </si>
+  <si>
     <t>Calculated as ([Date_Locoregional_relapse]-[DateDiagIndex])/365.25</t>
   </si>
   <si>
@@ -1744,6 +1778,24 @@
   </si>
   <si>
     <t xml:space="preserve">([Date_Distant_metastasis_relapse]-[DateDiagIndex])/365.25 </t>
+  </si>
+  <si>
+    <t>YearLastFU</t>
+  </si>
+  <si>
+    <t>Year of last follow up</t>
+  </si>
+  <si>
+    <t>Currently accepting values between 1950 and 2023</t>
+  </si>
+  <si>
+    <t>MonthLastFU</t>
+  </si>
+  <si>
+    <t>Month of last followup</t>
+  </si>
+  <si>
+    <t>months, (1-12), 888=DK</t>
   </si>
   <si>
     <t>Date_Follow_up_relapse</t>
@@ -1949,63 +2001,12 @@
   <si>
     <t>Note: in the working group we decided to code only the major categories and not the sub-categories of the T</t>
   </si>
-  <si>
-    <t>EthnicityClass_recode</t>
-  </si>
-  <si>
-    <t>Recode of EthnicityClass, combinces Asian Subcontinent and South-East Asian categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1=Northern European, 2=Southern European, 3=Western European, 4=Eastern European, 5=American European, 6=Hispanic Latinx, 7=African (Africa), 8=Carribbean African, 9=American African, 10=South Asia Indian, 11=Pakistani, 12=East and West Bengali, 13=Chinese, 14=Malaysian Peninsula, 15=Japanese, 16=Other (including 'mixed race'), 888=DK, 17=Caribbean Latinx 
-</t>
-  </si>
-  <si>
-    <t>1=European (for EthnicitySubClass 1, 2, 3, 4, 5), 
-2=Latinx / Caribbean / Admixed American (for EthnicitySubClass 6, 17),
-3=African (for EthnicitySubClass 7, 8, 9), 
-4=Asian (for EthnicitySubClass 10, 11, 12, 13, 14, 15), 
-6=Other (including 'mixed race'), 
-888=DK</t>
-  </si>
-  <si>
-    <t>YearLastFU</t>
-  </si>
-  <si>
-    <t>MonthLastFU</t>
-  </si>
-  <si>
-    <t>Time in years between diagnosis and locoregional relapse</t>
-  </si>
-  <si>
-    <t>Year of last follow up</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>Currently accepting values between 1950 and 2023</t>
-  </si>
-  <si>
-    <t>Month of last followup</t>
-  </si>
-  <si>
-    <t>months, (1-12)</t>
-  </si>
-  <si>
-    <t>MorphologyGroupIndex</t>
-  </si>
-  <si>
-    <t>This variable is derived from [MorphologyGroup1] or [MorphologyGroup2] using variable [Index]</t>
-  </si>
-  <si>
-    <t>Version 2.0 (Jan 2024)  (BCAC V4.0 (Mar 2022))</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2831,132 +2832,165 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2965,39 +2999,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3513,12 +3514,12 @@
   </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="9"/>
   <cols>
     <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" style="2" customWidth="1"/>
@@ -3529,705 +3530,705 @@
     <col min="7" max="16384" width="28.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
-      <c r="D1" s="48"/>
+      <c r="D1" s="47"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.75">
       <c r="A2" s="76" t="s">
-        <v>580</v>
+        <v>1</v>
       </c>
       <c r="B2" s="77"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="12" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25">
       <c r="A5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
-      <c r="B6" s="45" t="s">
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="34" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="22.5">
+      <c r="A6" s="57"/>
+      <c r="B6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
-      <c r="B7" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:6" ht="11.25">
+      <c r="A7" s="57"/>
+      <c r="B7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="1:6" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
-      <c r="B8" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="D7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="1:6" ht="101.25">
+      <c r="A8" s="57"/>
+      <c r="B8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="96.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
-      <c r="B9" s="34" t="s">
+      <c r="E8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="34" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="96.6" customHeight="1">
+      <c r="A9" s="57"/>
+      <c r="B9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="34" t="s">
+      <c r="D9" s="33" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="34" t="s">
+      <c r="E9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="34" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="90">
+      <c r="A10" s="57"/>
+      <c r="B10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="C10" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="34" t="s">
+      <c r="D10" s="33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
-      <c r="B11" s="45" t="s">
+      <c r="E10" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="34" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="56.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="C11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="34"/>
-    </row>
-    <row r="12" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45" t="s">
+      <c r="D11" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="E11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A12" s="41"/>
+      <c r="B12" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="34" t="s">
+      <c r="D12" s="33" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
-      <c r="B13" s="45" t="s">
+      <c r="E12" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="34" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="33.75">
+      <c r="A13" s="41"/>
+      <c r="B13" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="34" t="s">
+      <c r="D13" s="33" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
-      <c r="B14" s="45" t="s">
+      <c r="E13" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="34" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="22.5">
+      <c r="A14" s="41"/>
+      <c r="B14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="34"/>
-    </row>
-    <row r="15" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="45" t="s">
+      <c r="C14" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" ht="11.25">
+      <c r="A15" s="57"/>
+      <c r="B15" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="34"/>
-    </row>
-    <row r="16" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
-      <c r="B16" s="45" t="s">
+      <c r="D15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="E15" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="33"/>
+    </row>
+    <row r="16" spans="1:6" ht="33.75">
+      <c r="A16" s="57"/>
+      <c r="B16" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
-      <c r="B17" s="45" t="s">
+      <c r="D16" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="34" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="33.75">
+      <c r="A17" s="57"/>
+      <c r="B17" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="34" t="s">
+      <c r="D17" s="33" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
-      <c r="B18" s="46" t="s">
+      <c r="E17" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="39" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="22.5">
+      <c r="A18" s="58"/>
+      <c r="B18" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="39"/>
-    </row>
-    <row r="19" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="C18" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" spans="1:6" ht="22.5">
       <c r="A19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="B19" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="D19" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="34"/>
-    </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="54" t="s">
+      <c r="E19" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" spans="1:6" ht="45">
+      <c r="A20" s="57"/>
+      <c r="B20" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="D20" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="E20" s="33" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
-      <c r="B21" s="45" t="s">
+      <c r="F20" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="34" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="42" customHeight="1">
+      <c r="A21" s="57"/>
+      <c r="B21" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="34" t="s">
+      <c r="D21" s="33" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
-      <c r="B22" s="45" t="s">
+      <c r="E21" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="34" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="11.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="34"/>
-    </row>
-    <row r="23" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="58"/>
-      <c r="B23" s="45" t="s">
+      <c r="D22" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="E22" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="33"/>
+    </row>
+    <row r="23" spans="1:6" ht="11.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="C23" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="34" t="s">
+      <c r="D23" s="33" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="58"/>
-      <c r="B24" s="45" t="s">
+      <c r="E23" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="34" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="11.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="C24" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="58"/>
-      <c r="B25" s="54" t="s">
+      <c r="E24" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="34" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="56.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="34" t="s">
+      <c r="C25" s="33" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="45" t="s">
+      <c r="D25" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="34" t="s">
+    </row>
+    <row r="26" spans="1:6" ht="33.75">
+      <c r="A26" s="57"/>
+      <c r="B26" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="C26" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="34"/>
-    </row>
-    <row r="27" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="58"/>
-      <c r="B27" s="45" t="s">
+      <c r="D26" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="E26" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="33"/>
+    </row>
+    <row r="27" spans="1:6" ht="22.5">
+      <c r="A27" s="57"/>
+      <c r="B27" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="C27" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="34"/>
-    </row>
-    <row r="28" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="D27" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="33"/>
+    </row>
+    <row r="28" spans="1:6" ht="11.25">
       <c r="A28" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="51"/>
-    </row>
-    <row r="29" spans="1:6" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="50"/>
+    </row>
+    <row r="29" spans="1:6" ht="123.75">
       <c r="A29" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="B29" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="C29" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="34"/>
-    </row>
-    <row r="30" spans="1:6" ht="90" x14ac:dyDescent="0.2">
+      <c r="D29" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="33"/>
+    </row>
+    <row r="30" spans="1:6" ht="101.25">
       <c r="A30" s="12"/>
-      <c r="B30" s="45" t="s">
-        <v>566</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="144.94999999999999" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>568</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="58"/>
-      <c r="B32" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="34" t="s">
+      <c r="B31" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="C31" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="34" t="s">
+      <c r="D31" s="33" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="58"/>
-      <c r="B33" s="45" t="s">
+      <c r="E31" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="34" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="22.5">
+      <c r="A32" s="57"/>
+      <c r="B32" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="34"/>
-    </row>
-    <row r="34" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="58"/>
-      <c r="B34" s="45" t="s">
+      <c r="C32" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="D32" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="E32" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="34"/>
-    </row>
-    <row r="35" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="58"/>
-      <c r="B35" s="45" t="s">
+    </row>
+    <row r="33" spans="1:6" ht="22.5">
+      <c r="A33" s="57"/>
+      <c r="B33" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C33" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="34"/>
-    </row>
-    <row r="36" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
+      <c r="D33" s="33"/>
+      <c r="E33" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="33"/>
+    </row>
+    <row r="34" spans="1:6" ht="33.75">
+      <c r="A34" s="57"/>
+      <c r="B34" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="C34" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="D34" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="E34" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="33"/>
+    </row>
+    <row r="35" spans="1:6" ht="33.75">
+      <c r="A35" s="57"/>
+      <c r="B35" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="37"/>
-    </row>
-    <row r="37" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="58"/>
-      <c r="B37" s="45" t="s">
+      <c r="C35" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="D35" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="33"/>
+    </row>
+    <row r="36" spans="1:6" ht="22.5">
+      <c r="A36" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="B36" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="34"/>
-    </row>
-    <row r="38" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="63"/>
-      <c r="B38" s="46" t="s">
+      <c r="C36" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="D36" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="E36" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="36"/>
+    </row>
+    <row r="37" spans="1:6" ht="22.5">
+      <c r="A37" s="57"/>
+      <c r="B37" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="39" t="s">
+      <c r="C37" s="33" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="49" t="s">
+      <c r="D37" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="E37" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="33"/>
+    </row>
+    <row r="38" spans="1:6" ht="33.75">
+      <c r="A38" s="58"/>
+      <c r="B38" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C38" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D38" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="51" t="s">
+      <c r="E38" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="38" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="33.75">
+      <c r="A39" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="B42" s="7"/>
       <c r="C42" s="3"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="B43" s="7"/>
       <c r="C43" s="3"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="B44" s="7"/>
       <c r="C44" s="3"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="B45" s="7"/>
       <c r="C45" s="3"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="B46" s="7"/>
       <c r="C46" s="3"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="B48" s="7"/>
       <c r="C48" s="3"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6">
       <c r="B49" s="7"/>
       <c r="C49" s="3"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6">
       <c r="B50" s="7"/>
       <c r="C50" s="3"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:6">
       <c r="B51" s="7"/>
       <c r="C51" s="3"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6">
       <c r="B52" s="7"/>
       <c r="C52" s="3"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6">
       <c r="B53" s="7"/>
       <c r="C53" s="3"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6">
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
       <c r="F54" s="4"/>
@@ -4281,7 +4282,7 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="9"/>
   <cols>
     <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" style="2" customWidth="1"/>
@@ -4291,1058 +4292,1058 @@
     <col min="7" max="16384" width="28.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1">
       <c r="A1" s="78" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
-      <c r="D1" s="48"/>
+      <c r="D1" s="47"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="18"/>
+    <row r="2" spans="1:6" ht="12.75">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="12" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25">
+      <c r="A5" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="11.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="37" t="s">
+      <c r="B6" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="37"/>
-    </row>
-    <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
-      <c r="B8" s="45" t="s">
+      <c r="C6" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:6" ht="11.25">
+      <c r="A7" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="B7" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="34" t="s">
+      <c r="C7" s="36" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
-      <c r="B9" s="45" t="s">
+      <c r="D7" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="F7" s="36"/>
+    </row>
+    <row r="8" spans="1:6" ht="22.5">
+      <c r="A8" s="57"/>
+      <c r="B8" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="45" t="s">
+      <c r="D8" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="E8" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="34" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="45">
+      <c r="A9" s="57"/>
+      <c r="B9" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="34"/>
-    </row>
-    <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="C9" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="D9" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="E9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="1:6" ht="33.75">
+      <c r="A10" s="57"/>
+      <c r="B10" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="C10" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="37" t="s">
+      <c r="D10" s="33" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
-      <c r="B12" s="54" t="s">
+      <c r="E10" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:6" ht="22.5">
+      <c r="A11" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="B11" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="34" t="s">
+      <c r="C11" s="36" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
-      <c r="B13" s="45" t="s">
+      <c r="D11" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="E11" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="34" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="33.75">
+      <c r="A12" s="57"/>
+      <c r="B12" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
-      <c r="B14" s="45" t="s">
+      <c r="C12" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="D12" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="34"/>
-    </row>
-    <row r="15" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="22.5">
+      <c r="A13" s="57"/>
+      <c r="B13" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="C13" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="D13" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="37"/>
-    </row>
-    <row r="16" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
-      <c r="B16" s="45" t="s">
+      <c r="E13" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="22.5">
+      <c r="A14" s="57"/>
+      <c r="B14" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D14" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" ht="11.25">
+      <c r="A15" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="34"/>
-    </row>
-    <row r="17" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="B15" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="C15" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="D15" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="36"/>
+    </row>
+    <row r="16" spans="1:6" ht="11.25">
+      <c r="A16" s="57"/>
+      <c r="B16" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="C16" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="37"/>
-    </row>
-    <row r="18" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
-      <c r="B18" s="45" t="s">
+      <c r="D16" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="E16" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="1:6" ht="11.25">
+      <c r="A17" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="B17" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="34"/>
-    </row>
-    <row r="19" spans="1:6" ht="76.349999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
-      <c r="B19" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="34" t="s">
+      <c r="C17" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D17" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="34"/>
-    </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="E17" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="36"/>
+    </row>
+    <row r="18" spans="1:6" ht="11.25">
+      <c r="A18" s="57"/>
+      <c r="B18" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="C18" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="D18" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="E18" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="1:6" ht="76.349999999999994" customHeight="1">
+      <c r="A19" s="57"/>
+      <c r="B19" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="E20" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="37" t="s">
+      <c r="D19" s="33" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="E19" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" spans="1:6" ht="45">
+      <c r="A20" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="56.25">
       <c r="A21" s="12"/>
-      <c r="B21" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="34" t="s">
+      <c r="B21" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="22.5">
+      <c r="A22" s="57"/>
+      <c r="B22" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="33"/>
+    </row>
+    <row r="23" spans="1:6" ht="45">
+      <c r="A23" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="60" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
-      <c r="B22" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" s="34"/>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="E23" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="56.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="64" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="65" t="s">
+      <c r="D24" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="D23" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="58"/>
-      <c r="B24" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="34" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="45">
+      <c r="A25" s="57"/>
+      <c r="B25" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="41" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A25" s="58"/>
-      <c r="B25" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="45" t="s">
+      <c r="E25" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="34" t="s">
+    </row>
+    <row r="26" spans="1:6" ht="56.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="22.5">
+      <c r="A27" s="57"/>
+      <c r="B27" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="33"/>
+    </row>
+    <row r="28" spans="1:6" ht="45">
+      <c r="A28" s="57"/>
+      <c r="B28" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="55" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="58"/>
-      <c r="B27" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="34"/>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A28" s="58"/>
-      <c r="B28" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28" s="56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="56.25">
+      <c r="A29" s="57"/>
+      <c r="B29" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="F28" s="57" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
-      <c r="B29" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="58"/>
-      <c r="B30" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="34"/>
-    </row>
-    <row r="31" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="B31" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C31" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="D31" s="65" t="s">
+      <c r="E29" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="11.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="E31" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="37" t="s">
+      <c r="C30" s="41" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="45" t="s">
+      <c r="D30" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="33"/>
+    </row>
+    <row r="31" spans="1:6" ht="22.5">
+      <c r="A31" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="B31" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="C31" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="E32" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="34"/>
-    </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
+      <c r="D31" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="E31" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="65" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="11.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="D33" s="65" t="s">
+      <c r="C32" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="E33" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="37"/>
-    </row>
-    <row r="34" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="58"/>
-      <c r="B34" s="45" t="s">
+      <c r="D32" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="E32" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="33"/>
+    </row>
+    <row r="33" spans="1:6" ht="45">
+      <c r="A33" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D34" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="34"/>
-    </row>
-    <row r="35" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="64" t="s">
+      <c r="B33" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C33" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D33" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="E35" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" s="37" t="s">
+      <c r="E33" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="36"/>
+    </row>
+    <row r="34" spans="1:6" ht="11.25">
+      <c r="A34" s="57"/>
+      <c r="B34" s="44" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="58"/>
-      <c r="B36" s="45" t="s">
+      <c r="C34" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="D34" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="33"/>
+    </row>
+    <row r="35" spans="1:6" ht="11.25">
+      <c r="A35" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="D36" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F36" s="34" t="s">
+      <c r="C35" s="36" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="58"/>
-      <c r="B37" s="45" t="s">
+      <c r="D35" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="E35" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="D37" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F37" s="34" t="s">
+    </row>
+    <row r="36" spans="1:6" ht="22.5">
+      <c r="A36" s="57"/>
+      <c r="B36" s="44" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="58"/>
-      <c r="B38" s="45" t="s">
+      <c r="C36" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="D36" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="D38" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" s="34"/>
-    </row>
-    <row r="39" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="58"/>
-      <c r="B39" s="45" t="s">
+    </row>
+    <row r="37" spans="1:6" ht="22.5">
+      <c r="A37" s="57"/>
+      <c r="B37" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C37" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="D39" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="34" t="s">
+      <c r="D37" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="33" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="58"/>
-      <c r="B40" s="45" t="s">
+    <row r="38" spans="1:6" ht="11.25">
+      <c r="A38" s="57"/>
+      <c r="B38" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C38" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="D40" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F40" s="34" t="s">
+      <c r="D38" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="33"/>
+    </row>
+    <row r="39" spans="1:6" ht="22.5">
+      <c r="A39" s="57"/>
+      <c r="B39" s="44" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="58"/>
-      <c r="B41" s="45" t="s">
+      <c r="C39" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="D39" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="D41" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="34"/>
-    </row>
-    <row r="42" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="58"/>
-      <c r="B42" s="45" t="s">
+    </row>
+    <row r="40" spans="1:6" ht="22.5">
+      <c r="A40" s="57"/>
+      <c r="B40" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C40" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="D42" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="34"/>
-    </row>
-    <row r="43" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="58"/>
-      <c r="B43" s="45" t="s">
+      <c r="D40" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="C43" s="34" t="s">
+    </row>
+    <row r="41" spans="1:6" ht="11.25">
+      <c r="A41" s="57"/>
+      <c r="B41" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="D43" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="34"/>
-    </row>
-    <row r="44" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="42"/>
-      <c r="B44" s="45" t="s">
+      <c r="C41" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="D41" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="33"/>
+    </row>
+    <row r="42" spans="1:6" ht="11.25">
+      <c r="A42" s="57"/>
+      <c r="B42" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="D44" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="34" t="s">
+      <c r="C42" s="33" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="42"/>
-      <c r="B45" s="45" t="s">
+      <c r="D42" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="33"/>
+    </row>
+    <row r="43" spans="1:6" ht="11.25">
+      <c r="A43" s="57"/>
+      <c r="B43" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C43" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="D45" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F45" s="34" t="s">
+      <c r="D43" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="33"/>
+    </row>
+    <row r="44" spans="1:6" ht="22.5">
+      <c r="A44" s="41"/>
+      <c r="B44" s="44" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="42"/>
-      <c r="B46" s="45" t="s">
+      <c r="C44" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="D44" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="D46" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="34" t="s">
+    </row>
+    <row r="45" spans="1:6" ht="22.5">
+      <c r="A45" s="41"/>
+      <c r="B45" s="44" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="42"/>
-      <c r="B47" s="45" t="s">
+      <c r="C45" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="D45" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="D47" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F47" s="34" t="s">
+    </row>
+    <row r="46" spans="1:6" ht="33.75">
+      <c r="A46" s="41"/>
+      <c r="B46" s="44" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="42"/>
-      <c r="B48" s="45" t="s">
+      <c r="C46" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="D46" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="D48" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="42"/>
-      <c r="B49" s="45" t="s">
+    </row>
+    <row r="47" spans="1:6" ht="22.5">
+      <c r="A47" s="41"/>
+      <c r="B47" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C47" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="D49" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E49" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F49" s="34" t="s">
+      <c r="D47" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="33" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="42"/>
-      <c r="B50" s="45" t="s">
+    <row r="48" spans="1:6" ht="22.5">
+      <c r="A48" s="41"/>
+      <c r="B48" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C48" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="D50" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="42"/>
-      <c r="B51" s="45" t="s">
+      <c r="D48" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="22.5">
+      <c r="A49" s="41"/>
+      <c r="B49" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C49" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="D51" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F51" s="34" t="s">
+      <c r="D49" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F49" s="33" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
-      <c r="B52" s="45" t="s">
+    <row r="50" spans="1:6" ht="33.75">
+      <c r="A50" s="41"/>
+      <c r="B50" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C50" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="D52" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F52" s="34" t="s">
+      <c r="D50" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="22.5">
+      <c r="A51" s="41"/>
+      <c r="B51" s="44" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="63"/>
-      <c r="B53" s="46" t="s">
+      <c r="C51" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="D51" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F51" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="D53" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F53" s="39" t="s">
+    </row>
+    <row r="52" spans="1:6" ht="22.5">
+      <c r="A52" s="57"/>
+      <c r="B52" s="44" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="62" t="s">
+      <c r="C52" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="D52" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F52" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="C54" s="39" t="s">
+    </row>
+    <row r="53" spans="1:6" ht="33.75">
+      <c r="A53" s="58"/>
+      <c r="B53" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="C53" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="E54" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F54" s="43"/>
-    </row>
-    <row r="55" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="61" t="s">
+      <c r="D53" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="B55" s="35" t="s">
+    </row>
+    <row r="54" spans="1:6" ht="33.75">
+      <c r="A54" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="B54" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="D55" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="35"/>
-    </row>
-    <row r="56" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="36"/>
-      <c r="B56" s="35" t="s">
+      <c r="C54" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="D54" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="E54" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" s="42"/>
+    </row>
+    <row r="55" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A55" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="E56" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F56" s="35"/>
-    </row>
-    <row r="57" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="61"/>
-      <c r="B57" s="34" t="s">
+      <c r="B55" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C55" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D55" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="34"/>
+    </row>
+    <row r="56" spans="1:6" ht="22.5">
+      <c r="A56" s="35"/>
+      <c r="B56" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="E57" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="35"/>
-    </row>
-    <row r="58" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="60" t="s">
+      <c r="C56" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="D56" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="E56" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" s="34"/>
+    </row>
+    <row r="57" spans="1:6" ht="33.75">
+      <c r="A57" s="72"/>
+      <c r="B57" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="C57" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="E58" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="41"/>
-    </row>
-    <row r="59" spans="1:6" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="61"/>
-      <c r="B59" s="34" t="s">
+      <c r="D57" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="E57" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="34"/>
+    </row>
+    <row r="58" spans="1:6" ht="11.25">
+      <c r="A58" s="71" t="s">
         <v>291</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="B58" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="E59" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F59" s="35" t="s">
+      <c r="C58" s="36" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="36"/>
-      <c r="B60" s="35" t="s">
+      <c r="D58" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="E58" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="40"/>
+    </row>
+    <row r="59" spans="1:6" ht="56.25">
+      <c r="A59" s="72"/>
+      <c r="B59" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="C59" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="E60" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F60" s="35"/>
-    </row>
-    <row r="61" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="36"/>
-      <c r="B61" s="34" t="s">
+      <c r="D59" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="E59" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="D61" s="34" t="s">
+    </row>
+    <row r="60" spans="1:6" ht="56.25">
+      <c r="A60" s="35"/>
+      <c r="B60" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="E61" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="35" t="s">
+      <c r="C60" s="34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="38"/>
-      <c r="B62" s="39" t="s">
+      <c r="D60" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="C62" s="39" t="s">
+      <c r="E60" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F60" s="34"/>
+    </row>
+    <row r="61" spans="1:6" ht="22.5">
+      <c r="A61" s="35"/>
+      <c r="B61" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="C61" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="E62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" s="43" t="s">
-        <v>300</v>
+      <c r="D61" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="33.75">
+      <c r="A62" s="37"/>
+      <c r="B62" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="42" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -5374,342 +5375,342 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="28.42578125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="41" style="32" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" style="30" customWidth="1"/>
-    <col min="5" max="6" width="28.42578125" style="32" customWidth="1"/>
-    <col min="7" max="255" width="9.140625" style="32" customWidth="1"/>
-    <col min="256" max="16384" width="10.85546875" style="32"/>
+    <col min="1" max="2" width="28.42578125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="41" style="31" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" style="29" customWidth="1"/>
+    <col min="5" max="6" width="28.42578125" style="31" customWidth="1"/>
+    <col min="7" max="255" width="9.140625" style="31" customWidth="1"/>
+    <col min="256" max="16384" width="10.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="80" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
-      <c r="D1" s="47"/>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75">
+      <c r="A2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="82" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B3" s="83"/>
       <c r="C3" s="83"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>1</v>
+    <row r="4" spans="1:6" ht="12.75" thickBot="1">
+      <c r="A4" s="43" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="84" t="s">
-        <v>306</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="34"/>
-    </row>
-    <row r="6" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.95" customHeight="1">
       <c r="A6" s="85"/>
-      <c r="B6" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="85"/>
-      <c r="B7" s="45" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="1:6" ht="22.5">
       <c r="A8" s="85"/>
-      <c r="B8" s="45" t="s">
-        <v>315</v>
-      </c>
-      <c r="C8" s="34" t="s">
+      <c r="B8" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="F8" s="33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33.75">
       <c r="A9" s="85"/>
-      <c r="B9" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="B9" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45">
       <c r="A10" s="85"/>
-      <c r="B10" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="33.75">
       <c r="A11" s="85"/>
-      <c r="B11" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>324</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="85"/>
-      <c r="B12" s="45" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="34"/>
-    </row>
-    <row r="13" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="1:6" ht="22.5">
       <c r="A13" s="86"/>
-      <c r="B13" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="34"/>
-    </row>
-    <row r="14" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="C14" s="34" t="s">
+      <c r="B13" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="34" t="s">
+      <c r="D13" s="33" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
+      <c r="E13" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" spans="1:6" ht="22.5">
+      <c r="A14" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="C14" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="22.5">
+      <c r="A15" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="22.5">
       <c r="A16" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="D16" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>336</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-    </row>
-    <row r="50" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-    </row>
-    <row r="51" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-    </row>
-    <row r="52" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-    </row>
-    <row r="53" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-    </row>
-    <row r="54" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-    </row>
-    <row r="55" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-    </row>
-    <row r="56" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-    </row>
-    <row r="57" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-    </row>
-    <row r="58" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="32"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-    </row>
-    <row r="59" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
+      <c r="E16" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="30"/>
+    </row>
+    <row r="50" spans="1:6" s="29" customFormat="1">
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+    </row>
+    <row r="51" spans="1:6" s="29" customFormat="1">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+    </row>
+    <row r="52" spans="1:6" s="29" customFormat="1">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+    </row>
+    <row r="53" spans="1:6" s="29" customFormat="1">
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+    </row>
+    <row r="54" spans="1:6" s="29" customFormat="1">
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+    </row>
+    <row r="55" spans="1:6" s="29" customFormat="1">
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+    </row>
+    <row r="56" spans="1:6" s="29" customFormat="1">
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+    </row>
+    <row r="57" spans="1:6" s="29" customFormat="1">
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+    </row>
+    <row r="58" spans="1:6" s="29" customFormat="1">
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+    </row>
+    <row r="59" spans="1:6" s="29" customFormat="1">
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5734,12 +5735,12 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D25:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.140625" defaultRowHeight="9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="46.140625" defaultRowHeight="9"/>
   <cols>
     <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -5750,710 +5751,710 @@
     <col min="7" max="16384" width="46.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="87" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
-      <c r="D1" s="48"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D1" s="47"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="12" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22.5">
       <c r="A5" s="12" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>346</v>
+        <v>350</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>351</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" ht="22.5">
       <c r="A6" s="12"/>
-      <c r="B6" s="52" t="s">
-        <v>347</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="51" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="22.5">
       <c r="A7" s="12"/>
-      <c r="B7" s="52" t="s">
-        <v>351</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="48"/>
-    </row>
-    <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="1:6" ht="22.5">
       <c r="A8" s="12"/>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="E8" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="22.5">
       <c r="A9" s="12"/>
-      <c r="B9" s="52" t="s">
-        <v>357</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="48"/>
-    </row>
-    <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="51" t="s">
+        <v>362</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="47"/>
+    </row>
+    <row r="10" spans="1:6" ht="22.5">
       <c r="A10" s="12"/>
-      <c r="B10" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="48"/>
-    </row>
-    <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="51" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" spans="1:6" ht="22.5">
       <c r="A11" s="12"/>
-      <c r="B11" s="52" t="s">
-        <v>362</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="48" t="s">
+      <c r="B11" s="51" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="E11" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="22.5">
       <c r="A12" s="12"/>
-      <c r="B12" s="52" t="s">
-        <v>365</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="22.5">
       <c r="A13" s="12"/>
-      <c r="B13" s="52" t="s">
-        <v>370</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="D13" s="34" t="s">
+      <c r="B13" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="E13" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="D13" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33.75">
       <c r="A14" s="12"/>
-      <c r="B14" s="52" t="s">
-        <v>578</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45">
       <c r="A15" s="12"/>
-      <c r="B15" s="52" t="s">
-        <v>373</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="52" t="s">
-        <v>377</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="51" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="22.5">
       <c r="A17" s="12"/>
-      <c r="B17" s="52" t="s">
-        <v>380</v>
-      </c>
-      <c r="C17" s="34" t="s">
+      <c r="B17" s="51" t="s">
+        <v>386</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="D17" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E17" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="11.25">
       <c r="A18" s="12"/>
-      <c r="B18" s="52" t="s">
-        <v>383</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="48"/>
-    </row>
-    <row r="19" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="51" t="s">
+        <v>389</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="47"/>
+    </row>
+    <row r="19" spans="1:6" ht="11.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="48"/>
-    </row>
-    <row r="20" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="47"/>
+    </row>
+    <row r="20" spans="1:6" ht="22.5">
       <c r="A20" s="12"/>
-      <c r="B20" s="52" t="s">
-        <v>388</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B20" s="51" t="s">
+        <v>394</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="56.25">
       <c r="A21" s="12"/>
-      <c r="B21" s="52" t="s">
-        <v>391</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="51" t="s">
+        <v>397</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="22.5">
       <c r="A22" s="12"/>
-      <c r="B22" s="52" t="s">
-        <v>395</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="22.5">
       <c r="A23" s="12"/>
-      <c r="B23" s="52" t="s">
-        <v>398</v>
-      </c>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="51" t="s">
+        <v>404</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="D23" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="48" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E23" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="11.25">
       <c r="A24" s="12"/>
-      <c r="B24" s="52" t="s">
-        <v>401</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>403</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="48"/>
-    </row>
-    <row r="25" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B24" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>409</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="47"/>
+    </row>
+    <row r="25" spans="1:6" ht="11.25">
       <c r="A25" s="12"/>
-      <c r="B25" s="52" t="s">
-        <v>404</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>405</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="48"/>
-    </row>
-    <row r="26" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="51" t="s">
+        <v>410</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="47"/>
+    </row>
+    <row r="26" spans="1:6" ht="22.5">
       <c r="A26" s="12"/>
-      <c r="B26" s="52" t="s">
-        <v>406</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>408</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="48" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="33.75">
       <c r="A27" s="12"/>
-      <c r="B27" s="52" t="s">
-        <v>410</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="48" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="89.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="89.45" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="52" t="s">
-        <v>412</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>413</v>
-      </c>
-      <c r="D28" s="67" t="s">
-        <v>414</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B28" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>421</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="11.25">
       <c r="A29" s="12"/>
-      <c r="B29" s="52" t="s">
-        <v>416</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>413</v>
-      </c>
-      <c r="D29" s="67" t="s">
-        <v>417</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="48" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="51" t="s">
+        <v>423</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>424</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="22.5">
       <c r="A30" s="12"/>
-      <c r="B30" s="52" t="s">
-        <v>419</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="D30" s="67" t="s">
-        <v>414</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="48" t="s">
+      <c r="B30" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="D30" s="62" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="E30" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="22.5">
       <c r="A31" s="12"/>
-      <c r="B31" s="52" t="s">
-        <v>422</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B31" s="51" t="s">
+        <v>429</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="22.5">
       <c r="A32" s="12"/>
-      <c r="B32" s="52" t="s">
-        <v>426</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="E32" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="48" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B32" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="6" customFormat="1" ht="22.5">
       <c r="A33" s="13"/>
-      <c r="B33" s="68" t="s">
-        <v>428</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>429</v>
-      </c>
-      <c r="D33" s="69" t="s">
-        <v>424</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="70" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B33" s="63" t="s">
+        <v>435</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="65" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="22.5">
       <c r="A34" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>431</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>432</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="48" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="22.5">
       <c r="A35" s="12"/>
-      <c r="B35" s="45" t="s">
-        <v>434</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>435</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="E35" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B35" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="22.5">
       <c r="A36" s="12"/>
-      <c r="B36" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B36" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="22.5">
       <c r="A37" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="B37" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="C37" s="45" t="s">
-        <v>441</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="48" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:6" ht="22.5">
       <c r="A38" s="12"/>
-      <c r="B38" s="45" t="s">
-        <v>442</v>
-      </c>
-      <c r="C38" s="45" t="s">
+      <c r="B38" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="D38" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="D38" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="48" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="E38" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="22.5">
       <c r="A39" s="12"/>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="22.5">
+      <c r="A40" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>455</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="47" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="22.5">
+      <c r="A41" s="12"/>
+      <c r="B41" s="44" t="s">
+        <v>457</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="47" t="s">
         <v>444</v>
       </c>
-      <c r="C39" s="45" t="s">
-        <v>445</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="48" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>449</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="48" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="45" t="s">
-        <v>450</v>
-      </c>
-      <c r="C41" s="45" t="s">
-        <v>451</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="E41" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="48" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:6" ht="33.75">
       <c r="A42" s="12"/>
-      <c r="B42" s="45" t="s">
-        <v>452</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>453</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="48" t="s">
-        <v>454</v>
+      <c r="B42" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -6481,11 +6482,11 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <pane ySplit="4" topLeftCell="C5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="9"/>
   <cols>
     <col min="1" max="1" width="24.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.140625" style="2" bestFit="1" customWidth="1"/>
@@ -6496,502 +6497,502 @@
     <col min="7" max="16384" width="7.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="95" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
-      <c r="D1" s="48"/>
+      <c r="D1" s="47"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="11.25" customHeight="1">
       <c r="A3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="12" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="F4" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25">
       <c r="A5" s="89" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="91"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="71" t="s">
-        <v>457</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>458</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>459</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>460</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="45" t="s">
-        <v>462</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="34" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" ht="22.5">
+      <c r="A6" s="66" t="s">
         <v>464</v>
       </c>
-      <c r="F7" s="29"/>
-    </row>
-    <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="44" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="22.5">
+      <c r="A7" s="19"/>
+      <c r="B7" s="44" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>470</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" ht="22.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>465</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
-      <c r="B9" s="45" t="s">
-        <v>467</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>468</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="29"/>
-    </row>
-    <row r="10" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
-      <c r="B10" s="45" t="s">
-        <v>469</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>470</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="29"/>
-    </row>
-    <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
-      <c r="B11" s="45" t="s">
+      <c r="B8" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>472</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="D8" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" s="29" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="11.25">
+      <c r="A9" s="66"/>
+      <c r="B9" s="44" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
-      <c r="B12" s="45" t="s">
+      <c r="C9" s="47" t="s">
         <v>475</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="D9" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" ht="11.25">
+      <c r="A10" s="66"/>
+      <c r="B10" s="44" t="s">
         <v>476</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="29" t="s">
+      <c r="C10" s="47" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
-      <c r="B13" s="45" t="s">
+      <c r="D10" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="E10" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:6" ht="22.5">
+      <c r="A11" s="66"/>
+      <c r="B11" s="44" t="s">
         <v>479</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="C11" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="E13" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="29"/>
-    </row>
-    <row r="14" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
-      <c r="B14" s="45" t="s">
+      <c r="D11" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>481</v>
       </c>
-      <c r="C14" s="34" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A12" s="66"/>
+      <c r="B12" s="44" t="s">
         <v>482</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="72"/>
-      <c r="B15" s="46" t="s">
+      <c r="D12" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>484</v>
       </c>
-      <c r="C15" s="39" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="11.25">
+      <c r="A13" s="66"/>
+      <c r="B13" s="44" t="s">
         <v>485</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="C13" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="E15" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="73"/>
-    </row>
-    <row r="16" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
+      <c r="D13" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="E13" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" ht="11.25">
+      <c r="A14" s="66"/>
+      <c r="B14" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C14" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D14" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="E16" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="29" t="s">
+      <c r="E14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" ht="11.25">
+      <c r="A15" s="67"/>
+      <c r="B15" s="45" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
-      <c r="B17" s="45" t="s">
+      <c r="C15" s="38" t="s">
         <v>492</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="D15" s="38" t="s">
         <v>493</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
-      <c r="B18" s="45" t="s">
+      <c r="E15" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="68"/>
+    </row>
+    <row r="16" spans="1:6" ht="22.5">
+      <c r="A16" s="66" t="s">
         <v>494</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="B16" s="59" t="s">
         <v>495</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="29" t="s">
+      <c r="C16" s="36" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
-      <c r="B19" s="45" t="s">
+      <c r="D16" s="36" t="s">
         <v>497</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>572</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="29" t="s">
+      <c r="E16" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
-      <c r="B20" s="45" t="s">
+    <row r="17" spans="1:6" ht="11.25">
+      <c r="A17" s="66"/>
+      <c r="B17" s="44" t="s">
         <v>499</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="D20" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="29" t="s">
+      <c r="D17" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="33.75">
+      <c r="A18" s="66"/>
+      <c r="B18" s="44" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
-      <c r="B21" s="45" t="s">
-        <v>570</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>573</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>574</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
-      <c r="B22" s="45" t="s">
-        <v>571</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>577</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
-      <c r="B23" s="45" t="s">
+      <c r="C18" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="D18" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="28" t="s">
         <v>503</v>
       </c>
-      <c r="D23" s="34" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="11.25">
+      <c r="A19" s="66"/>
+      <c r="B19" s="44" t="s">
         <v>504</v>
       </c>
-      <c r="E23" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="29" t="s">
+      <c r="C19" s="33" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="71"/>
-      <c r="B24" s="45" t="s">
+      <c r="D19" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>506</v>
       </c>
-      <c r="C24" s="45" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="11.25">
+      <c r="A20" s="66"/>
+      <c r="B20" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="73" t="s">
+      <c r="C20" s="33" t="s">
+        <v>508</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="11.25">
+      <c r="A21" s="66"/>
+      <c r="B21" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="11.25">
+      <c r="A22" s="66"/>
+      <c r="B22" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>515</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" ht="47.1" customHeight="1">
+      <c r="A23" s="66"/>
+      <c r="B23" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="22.5">
+      <c r="A24" s="66"/>
+      <c r="B24" s="44" t="s">
+        <v>520</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="D24" s="38" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="25.5" customHeight="1">
       <c r="A25" s="92" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="B25" s="93"/>
       <c r="C25" s="94"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="26" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="D25" s="33"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:6" ht="11.25">
       <c r="A26" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>510</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>511</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="29"/>
-    </row>
-    <row r="27" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" ht="22.5">
       <c r="A27" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>513</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>512</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="29"/>
-    </row>
-    <row r="28" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="1:6" ht="22.5">
       <c r="A28" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>515</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>516</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="29"/>
-    </row>
-    <row r="29" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="53" t="s">
-        <v>517</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>517</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>518</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>519</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:6" ht="21.6" customHeight="1">
+      <c r="A29" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>532</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:6" ht="22.5">
       <c r="A30" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>521</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>522</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>523</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="29"/>
-    </row>
-    <row r="31" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>535</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:6" ht="11.25">
       <c r="A31" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>525</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>524</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="29"/>
+        <v>538</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>539</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7023,233 +7024,233 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="59.140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="125.85546875" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="22.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="125.85546875" style="24" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>529</v>
-      </c>
-      <c r="B4" s="26" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="23" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="41.25" customHeight="1">
+      <c r="A2" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25.5">
+      <c r="A4" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="24">
+        <v>0</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="24">
+        <v>0</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="24">
+        <v>0</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="38.25">
+      <c r="A8" s="24">
+        <v>0</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="24">
+        <v>1</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="24">
+        <v>1</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="24">
+        <v>1</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="24">
+        <v>1</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="24">
+        <v>2</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="24">
         <v>3</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
-        <v>0</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>531</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
-        <v>0</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>533</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
-        <v>0</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>535</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
-        <v>0</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>537</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
-        <v>1</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>539</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
-        <v>1</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>541</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
-        <v>1</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
-        <v>1</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>545</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
-        <v>2</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>547</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
-        <v>3</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>549</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
+      <c r="B14" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="24">
         <v>4</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
+      <c r="B15" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="24">
         <v>4</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>553</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
+      <c r="B16" s="24" t="s">
+        <v>567</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="24">
         <v>4</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>555</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
+      <c r="B17" s="24" t="s">
+        <v>569</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="24">
         <v>4</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>557</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="25">
+      <c r="B18" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="24">
         <v>4</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>559</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
+      <c r="B19" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="24">
         <v>8</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>561</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
+      <c r="B20" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="24">
         <v>777</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
+      <c r="B22" s="24" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="24">
         <v>888</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
-        <v>565</v>
+      <c r="B23" s="24" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="63.75">
+      <c r="A26" s="23" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/Confluence_Extended_Dictionary.xlsx
+++ b/src/data/Confluence_Extended_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahearntu\AppData\Local\Box\Box Edit\Documents\iBiDhwb0H0qqly1mFsaTGQ==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahearntu\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F2EF23CC-566F-4908-B876-C0F158D81114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE4C9A32-F3D7-4A32-97DD-5C649C395282}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5076198-A057-4E30-B271-71370A43CA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="835" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="835" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CORE" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="T_TNM codes" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CORE!$A$4:$F$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CORE!$A$1:$F$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CORE!$A$4:$F$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CORE!$A$1:$F$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'RISK FACTORS'!$A$1:$F$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'SURVIVAL &amp; TREATMENT'!$A$1:$F$31</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">CORE!$4:$4</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="570">
   <si>
     <t>CONFLUENCE COVARIATE DATA DICTIONARY - CORE VARIABLES</t>
   </si>
@@ -193,12 +193,6 @@
     <t>details of how DNA is collected if DNA_source = 4 ('other')</t>
   </si>
   <si>
-    <t>matchId</t>
-  </si>
-  <si>
-    <t>ID of pair or matched case-control set</t>
-  </si>
-  <si>
     <t>777=NA, 888=DK</t>
   </si>
   <si>
@@ -244,48 +238,21 @@
     <t xml:space="preserve">quantitative - continuous </t>
   </si>
   <si>
-    <t>intDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date at interview/questionnaire for cases and controls </t>
-  </si>
-  <si>
     <t>dd/mm/yyyy, 08/08/8000=DK</t>
   </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t xml:space="preserve">If only year of interview is available, use the first of July as a surrogate for the true day and month; if only month and year of interview are available, use the 15 as a surrogate for the true day. </t>
-  </si>
-  <si>
-    <t>intDate_known</t>
-  </si>
-  <si>
-    <t>Marker for date of interview</t>
-  </si>
-  <si>
     <t>DMY=day,month and year known; MY=only month and year known; Y=only year known; NA=all unknown</t>
   </si>
   <si>
     <t>This marker allows the identification of true and surrogate dates.</t>
   </si>
   <si>
-    <t>intDay</t>
-  </si>
-  <si>
-    <t>Day of interview</t>
-  </si>
-  <si>
-    <t>day; DD; 888=DK</t>
-  </si>
-  <si>
     <t>intMonth</t>
   </si>
   <si>
-    <t>Month of interview</t>
-  </si>
-  <si>
     <t>month; 888=DK</t>
   </si>
   <si>
@@ -293,9 +260,6 @@
   </si>
   <si>
     <t>intYear</t>
-  </si>
-  <si>
-    <t>Year of interview</t>
   </si>
   <si>
     <t>year; YYYY; 888=DK</t>
@@ -2001,12 +1965,18 @@
   <si>
     <t>Note: in the working group we decided to code only the major categories and not the sub-categories of the T</t>
   </si>
+  <si>
+    <t xml:space="preserve">Month of interview/questionnaire for cases and controls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year of interview/questionnaire for cases and controls </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3512,14 +3482,14 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="9"/>
+  <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="9" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" style="2" customWidth="1"/>
@@ -3530,7 +3500,7 @@
     <col min="7" max="16384" width="28.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75">
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -3539,18 +3509,18 @@
       <c r="D1" s="47"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="12.75">
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="76" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="77"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="12" thickBot="1">
+    <row r="4" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -3570,7 +3540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="11.25">
+    <row r="5" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
@@ -3588,7 +3558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="22.5">
+    <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="57"/>
       <c r="B6" s="44" t="s">
         <v>13</v>
@@ -3604,7 +3574,7 @@
       </c>
       <c r="F6" s="33"/>
     </row>
-    <row r="7" spans="1:6" ht="11.25">
+    <row r="7" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="57"/>
       <c r="B7" s="33" t="s">
         <v>17</v>
@@ -3620,7 +3590,7 @@
       </c>
       <c r="F7" s="33"/>
     </row>
-    <row r="8" spans="1:6" ht="101.25">
+    <row r="8" spans="1:6" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A8" s="57"/>
       <c r="B8" s="33" t="s">
         <v>19</v>
@@ -3638,7 +3608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="96.6" customHeight="1">
+    <row r="9" spans="1:6" ht="96.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="57"/>
       <c r="B9" s="33" t="s">
         <v>24</v>
@@ -3656,7 +3626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="90">
+    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
       <c r="B10" s="33" t="s">
         <v>28</v>
@@ -3674,7 +3644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="56.25">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="57"/>
       <c r="B11" s="44" t="s">
         <v>32</v>
@@ -3690,7 +3660,7 @@
       </c>
       <c r="F11" s="33"/>
     </row>
-    <row r="12" spans="1:6" ht="43.5" customHeight="1">
+    <row r="12" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41"/>
       <c r="B12" s="44" t="s">
         <v>35</v>
@@ -3708,7 +3678,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="33.75">
+    <row r="13" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A13" s="41"/>
       <c r="B13" s="44" t="s">
         <v>39</v>
@@ -3726,7 +3696,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="22.5">
+    <row r="14" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="41"/>
       <c r="B14" s="44" t="s">
         <v>43</v>
@@ -3740,501 +3710,433 @@
       </c>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:6" ht="11.25">
+    <row r="15" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A15" s="57"/>
       <c r="B15" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>47</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="33"/>
-    </row>
-    <row r="16" spans="1:6" ht="33.75">
+      <c r="F15" s="33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A16" s="57"/>
       <c r="B16" s="44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="33.75">
-      <c r="A17" s="57"/>
-      <c r="B17" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="33" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="58"/>
+      <c r="B17" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="33" t="s">
+      <c r="C17" s="38" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="22.5">
-      <c r="A18" s="58"/>
-      <c r="B18" s="45" t="s">
+      <c r="D17" s="38"/>
+      <c r="E17" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="38"/>
+    </row>
+    <row r="18" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="B18" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="38"/>
-    </row>
-    <row r="19" spans="1:6" ht="22.5">
-      <c r="A19" s="12" t="s">
+      <c r="C18" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="D18" s="33" t="s">
         <v>58</v>
       </c>
+      <c r="E18" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="57"/>
+      <c r="B19" s="44" t="s">
+        <v>64</v>
+      </c>
       <c r="C19" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="33"/>
-    </row>
-    <row r="20" spans="1:6" ht="45">
+      <c r="F19" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="57"/>
-      <c r="B20" s="53" t="s">
-        <v>62</v>
+      <c r="B20" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>63</v>
+        <v>569</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E20" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="57"/>
+      <c r="B21" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="42" customHeight="1">
-      <c r="A21" s="57"/>
-      <c r="B21" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>69</v>
-      </c>
       <c r="E21" s="33" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="11.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A22" s="57"/>
       <c r="B22" s="44" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F22" s="33"/>
     </row>
-    <row r="23" spans="1:6" ht="11.25">
+    <row r="23" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="57"/>
       <c r="B23" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="11.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="33"/>
+    </row>
+    <row r="24" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="B24" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="33" t="s">
+      <c r="D24" s="50"/>
+      <c r="E24" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="50"/>
+    </row>
+    <row r="25" spans="1:6" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="56.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="44" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>83</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="33.75">
-      <c r="A26" s="57"/>
+        <v>22</v>
+      </c>
+      <c r="F25" s="33"/>
+    </row>
+    <row r="26" spans="1:6" ht="90" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
       <c r="B26" s="44" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="E26" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="33"/>
-    </row>
-    <row r="27" spans="1:6" ht="22.5">
-      <c r="A27" s="57"/>
+    </row>
+    <row r="27" spans="1:6" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
       <c r="B27" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="33" t="s">
         <v>89</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>90</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="33"/>
-    </row>
-    <row r="28" spans="1:6" ht="11.25">
-      <c r="A28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="50" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="57"/>
+      <c r="B28" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="50"/>
-    </row>
-    <row r="29" spans="1:6" ht="123.75">
-      <c r="A29" s="12" t="s">
+      <c r="C28" s="33" t="s">
         <v>93</v>
       </c>
+      <c r="D28" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="57"/>
       <c r="B29" s="44" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>96</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D29" s="33"/>
       <c r="E29" s="33" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F29" s="33"/>
     </row>
-    <row r="30" spans="1:6" ht="101.25">
-      <c r="A30" s="12"/>
+    <row r="30" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="57"/>
       <c r="B30" s="44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="144.94999999999999" customHeight="1">
-      <c r="A31" s="12"/>
+      <c r="F30" s="33"/>
+    </row>
+    <row r="31" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="57"/>
       <c r="B31" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="33" t="s">
+      <c r="E31" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="33"/>
+    </row>
+    <row r="32" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="22.5">
-      <c r="A32" s="57"/>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="36" t="s">
         <v>106</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="22.5">
+        <v>22</v>
+      </c>
+      <c r="F32" s="36"/>
+    </row>
+    <row r="33" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A33" s="57"/>
       <c r="B33" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="D33" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="33"/>
       <c r="E33" s="33" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F33" s="33"/>
     </row>
-    <row r="34" spans="1:6" ht="33.75">
-      <c r="A34" s="57"/>
-      <c r="B34" s="44" t="s">
+    <row r="34" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="58"/>
+      <c r="B34" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="33"/>
-    </row>
-    <row r="35" spans="1:6" ht="33.75">
-      <c r="A35" s="57"/>
-      <c r="B35" s="44" t="s">
+      <c r="E34" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="33" t="s">
+    </row>
+    <row r="35" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="33"/>
-    </row>
-    <row r="36" spans="1:6" ht="22.5">
-      <c r="A36" s="22" t="s">
+      <c r="B35" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="C35" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="D35" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="E35" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="36"/>
-    </row>
-    <row r="37" spans="1:6" ht="22.5">
-      <c r="A37" s="57"/>
-      <c r="B37" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="33"/>
-    </row>
-    <row r="38" spans="1:6" ht="33.75">
-      <c r="A38" s="58"/>
-      <c r="B38" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="33.75">
-      <c r="A39" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="50" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="7"/>
+      <c r="C38" s="3"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="7"/>
+      <c r="C39" s="3"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="7"/>
+      <c r="C40" s="3"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="7"/>
+      <c r="C41" s="3"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" s="7"/>
       <c r="C42" s="3"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43" s="7"/>
       <c r="C43" s="3"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" s="7"/>
       <c r="C44" s="3"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" s="7"/>
       <c r="C45" s="3"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46" s="7"/>
       <c r="C46" s="3"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" s="7"/>
       <c r="C47" s="3"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" s="7"/>
       <c r="C48" s="3"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="7"/>
       <c r="C49" s="3"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="7"/>
       <c r="C50" s="3"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="7"/>
-      <c r="C51" s="3"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="7"/>
-      <c r="C52" s="3"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="7"/>
-      <c r="C53" s="3"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="7"/>
-      <c r="C54" s="3"/>
-      <c r="F54" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A4:F39" xr:uid="{05EBEB48-20E3-944E-84CF-3569C8C94393}"/>
+  <autoFilter ref="A4:F35" xr:uid="{05EBEB48-20E3-944E-84CF-3569C8C94393}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:B2"/>
@@ -4252,13 +4154,13 @@
   <conditionalFormatting sqref="B9:B10">
     <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29 B31">
+  <conditionalFormatting sqref="B25 B27">
     <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
+  <conditionalFormatting sqref="B26">
     <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55:B1048576 B1:B4 B11:B28 B32:B41">
+  <conditionalFormatting sqref="B51:B1048576 B1:B4 B11:B24 B28:B37">
     <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
   <printOptions gridLines="1"/>
@@ -4282,7 +4184,7 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="9"/>
+  <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="9" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" style="2" customWidth="1"/>
@@ -4292,25 +4194,25 @@
     <col min="7" max="16384" width="28.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="78" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
       <c r="D1" s="47"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="12.75">
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="69"/>
       <c r="B2" s="70"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="12" thickBot="1">
+    <row r="4" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -4330,33 +4232,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="11.25">
+    <row r="5" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="11.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="44" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="36" t="s">
@@ -4364,986 +4266,986 @@
       </c>
       <c r="F6" s="33"/>
     </row>
-    <row r="7" spans="1:6" ht="11.25">
+    <row r="7" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F7" s="36"/>
     </row>
-    <row r="8" spans="1:6" ht="22.5">
+    <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="57"/>
       <c r="B8" s="44" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="57"/>
       <c r="B9" s="44" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="33"/>
     </row>
-    <row r="10" spans="1:6" ht="33.75">
+    <row r="10" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
       <c r="B10" s="44" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="33"/>
     </row>
-    <row r="11" spans="1:6" ht="22.5">
+    <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E11" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="33.75">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A12" s="57"/>
       <c r="B12" s="53" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="22.5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
       <c r="B13" s="44" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="22.5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="57"/>
       <c r="B14" s="44" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:6" ht="11.25">
+    <row r="15" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="36"/>
     </row>
-    <row r="16" spans="1:6" ht="11.25">
+    <row r="16" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="57"/>
       <c r="B16" s="44" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="1:6" ht="11.25">
+    <row r="17" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F17" s="36"/>
     </row>
-    <row r="18" spans="1:6" ht="11.25">
+    <row r="18" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="57"/>
       <c r="B18" s="44" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F18" s="33"/>
     </row>
-    <row r="19" spans="1:6" ht="76.349999999999994" customHeight="1">
+    <row r="19" spans="1:6" ht="76.349999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="57"/>
       <c r="B19" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="33"/>
-    </row>
-    <row r="20" spans="1:6" ht="45">
-      <c r="A20" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>184</v>
-      </c>
       <c r="E20" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="56.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="44" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E21" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="22.5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="57"/>
       <c r="B22" s="44" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F22" s="33"/>
     </row>
-    <row r="23" spans="1:6" ht="45">
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D23" s="60" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="56.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A24" s="57"/>
       <c r="B24" s="44" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E24" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="45">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="57"/>
       <c r="B25" s="44" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E25" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="56.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A26" s="57"/>
       <c r="B26" s="44" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E26" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="22.5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A27" s="57"/>
       <c r="B27" s="44" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F27" s="33"/>
     </row>
-    <row r="28" spans="1:6" ht="45">
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A28" s="57"/>
       <c r="B28" s="54" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F28" s="56" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="56.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A29" s="57"/>
       <c r="B29" s="44" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="11.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="57"/>
       <c r="B30" s="44" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F30" s="33"/>
     </row>
-    <row r="31" spans="1:6" ht="22.5">
+    <row r="31" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D31" s="60" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="11.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
       <c r="B32" s="44" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F32" s="33"/>
     </row>
-    <row r="33" spans="1:6" ht="45">
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D33" s="60" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E33" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F33" s="36"/>
     </row>
-    <row r="34" spans="1:6" ht="11.25">
+    <row r="34" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A34" s="57"/>
       <c r="B34" s="44" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F34" s="33"/>
     </row>
-    <row r="35" spans="1:6" ht="11.25">
+    <row r="35" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B35" s="59" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="22.5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A36" s="57"/>
       <c r="B36" s="44" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="22.5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>
       <c r="B37" s="44" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="11.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A38" s="57"/>
       <c r="B38" s="44" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F38" s="33"/>
     </row>
-    <row r="39" spans="1:6" ht="22.5">
+    <row r="39" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A39" s="57"/>
       <c r="B39" s="44" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="22.5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A40" s="57"/>
       <c r="B40" s="44" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="11.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A41" s="57"/>
       <c r="B41" s="44" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E41" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F41" s="33"/>
     </row>
-    <row r="42" spans="1:6" ht="11.25">
+    <row r="42" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A42" s="57"/>
       <c r="B42" s="44" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E42" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F42" s="33"/>
     </row>
-    <row r="43" spans="1:6" ht="11.25">
+    <row r="43" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A43" s="57"/>
       <c r="B43" s="44" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E43" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F43" s="33"/>
     </row>
-    <row r="44" spans="1:6" ht="22.5">
+    <row r="44" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A44" s="41"/>
       <c r="B44" s="44" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E44" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="22.5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A45" s="41"/>
       <c r="B45" s="44" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="33.75">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A46" s="41"/>
       <c r="B46" s="44" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D46" s="44" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E46" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="22.5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A47" s="41"/>
       <c r="B47" s="44" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="22.5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A48" s="41"/>
       <c r="B48" s="44" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E48" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="22.5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A49" s="41"/>
       <c r="B49" s="44" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="33.75">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A50" s="41"/>
       <c r="B50" s="44" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E50" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="22.5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A51" s="41"/>
       <c r="B51" s="44" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="22.5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A52" s="57"/>
       <c r="B52" s="44" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="33.75">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A53" s="58"/>
       <c r="B53" s="45" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="33.75">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A54" s="73" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F54" s="42"/>
     </row>
-    <row r="55" spans="1:6" ht="22.5" customHeight="1">
+    <row r="55" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="72" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E55" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F55" s="34"/>
     </row>
-    <row r="56" spans="1:6" ht="22.5">
+    <row r="56" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A56" s="35"/>
       <c r="B56" s="34" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F56" s="34"/>
     </row>
-    <row r="57" spans="1:6" ht="33.75">
+    <row r="57" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A57" s="72"/>
       <c r="B57" s="33" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E57" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F57" s="34"/>
     </row>
-    <row r="58" spans="1:6" ht="11.25">
+    <row r="58" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A58" s="71" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E58" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F58" s="40"/>
     </row>
-    <row r="59" spans="1:6" ht="56.25">
+    <row r="59" spans="1:6" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A59" s="72"/>
       <c r="B59" s="33" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F59" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="56.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A60" s="35"/>
       <c r="B60" s="34" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F60" s="34"/>
     </row>
-    <row r="61" spans="1:6" ht="22.5">
+    <row r="61" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A61" s="35"/>
       <c r="B61" s="33" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E61" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F61" s="34" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="33.75">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A62" s="37"/>
       <c r="B62" s="38" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E62" s="38" t="s">
         <v>22</v>
       </c>
       <c r="F62" s="42" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -5375,7 +5277,7 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="28.42578125" style="31" customWidth="1"/>
     <col min="3" max="3" width="41" style="31" customWidth="1"/>
@@ -5385,27 +5287,27 @@
     <col min="256" max="16384" width="10.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75">
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="80" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
       <c r="D1" s="46"/>
     </row>
-    <row r="2" spans="1:6" ht="12.75">
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="32"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="82" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B3" s="83"/>
       <c r="C3" s="83"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" thickBot="1">
+    <row r="4" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>2</v>
       </c>
@@ -5425,287 +5327,287 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F5" s="33"/>
     </row>
-    <row r="6" spans="1:6" ht="12.95" customHeight="1">
+    <row r="6" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="85"/>
       <c r="B6" s="44" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="F6" s="33"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="85"/>
       <c r="B7" s="44" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="33"/>
     </row>
-    <row r="8" spans="1:6" ht="22.5">
+    <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="85"/>
       <c r="B8" s="44" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="33.75">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A9" s="85"/>
       <c r="B9" s="44" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="85"/>
       <c r="B10" s="44" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="33.75">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="85"/>
       <c r="B11" s="44" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="85"/>
       <c r="B12" s="44" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="33"/>
     </row>
-    <row r="13" spans="1:6" ht="22.5">
+    <row r="13" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="86"/>
       <c r="B13" s="44" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="33"/>
     </row>
-    <row r="14" spans="1:6" ht="22.5">
+    <row r="14" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="22.5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="22.5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="30"/>
     </row>
-    <row r="50" spans="1:6" s="29" customFormat="1">
+    <row r="50" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
       <c r="E50" s="31"/>
       <c r="F50" s="31"/>
     </row>
-    <row r="51" spans="1:6" s="29" customFormat="1">
+    <row r="51" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
       <c r="E51" s="31"/>
       <c r="F51" s="31"/>
     </row>
-    <row r="52" spans="1:6" s="29" customFormat="1">
+    <row r="52" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
       <c r="E52" s="31"/>
       <c r="F52" s="31"/>
     </row>
-    <row r="53" spans="1:6" s="29" customFormat="1">
+    <row r="53" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="31"/>
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
       <c r="E53" s="31"/>
       <c r="F53" s="31"/>
     </row>
-    <row r="54" spans="1:6" s="29" customFormat="1">
+    <row r="54" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="31"/>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
       <c r="E54" s="31"/>
       <c r="F54" s="31"/>
     </row>
-    <row r="55" spans="1:6" s="29" customFormat="1">
+    <row r="55" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="31"/>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
       <c r="E55" s="31"/>
       <c r="F55" s="31"/>
     </row>
-    <row r="56" spans="1:6" s="29" customFormat="1">
+    <row r="56" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="31"/>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
       <c r="E56" s="31"/>
       <c r="F56" s="31"/>
     </row>
-    <row r="57" spans="1:6" s="29" customFormat="1">
+    <row r="57" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="31"/>
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
       <c r="E57" s="31"/>
       <c r="F57" s="31"/>
     </row>
-    <row r="58" spans="1:6" s="29" customFormat="1">
+    <row r="58" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="31"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31"/>
       <c r="E58" s="31"/>
       <c r="F58" s="31"/>
     </row>
-    <row r="59" spans="1:6" s="29" customFormat="1">
+    <row r="59" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="31"/>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
@@ -5740,7 +5642,7 @@
       <selection pane="bottomLeft" activeCell="D26" sqref="D25:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.140625" defaultRowHeight="9"/>
+  <sheetFormatPr defaultColWidth="46.140625" defaultRowHeight="9" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -5751,21 +5653,21 @@
     <col min="7" max="16384" width="46.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75">
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="87" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
       <c r="D1" s="47"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" ht="12" thickBot="1">
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -5785,676 +5687,676 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="22.5">
+    <row r="5" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" ht="22.5">
+    <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="51" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E6" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="22.5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="51" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="E7" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="47"/>
     </row>
-    <row r="8" spans="1:6" ht="22.5">
+    <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="51" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E8" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="22.5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="51" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E9" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="47"/>
     </row>
-    <row r="10" spans="1:6" ht="22.5">
+    <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="51" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E10" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="47"/>
     </row>
-    <row r="11" spans="1:6" ht="22.5">
+    <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="51" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E11" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="22.5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="51" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E12" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="22.5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="51" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E13" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="33.75">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="51" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="44" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="51" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E15" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="11.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="51" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E16" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="22.5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="51" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="11.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="51" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F18" s="47"/>
     </row>
-    <row r="19" spans="1:6" ht="11.25">
+    <row r="19" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="51" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F19" s="47"/>
     </row>
-    <row r="20" spans="1:6" ht="22.5">
+    <row r="20" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="51" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="56.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="51" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="22.5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="51" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="22.5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="51" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="11.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="51" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="E24" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="47"/>
     </row>
-    <row r="25" spans="1:6" ht="11.25">
+    <row r="25" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="51" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="E25" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F25" s="47"/>
     </row>
-    <row r="26" spans="1:6" ht="22.5">
+    <row r="26" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="51" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E26" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="33.75">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="51" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="44" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="89.45" customHeight="1">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="89.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="51" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E28" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="11.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="51" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E29" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="22.5">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="51" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E30" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="22.5">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="51" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="E31" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="22.5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="51" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="E32" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="6" customFormat="1" ht="22.5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="63" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="E33" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F33" s="65" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="22.5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E34" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="22.5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="44" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E35" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="22.5">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="44" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E36" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="22.5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E37" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="22.5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="44" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E38" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F38" s="47" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="22.5">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="44" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E39" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="22.5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E40" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="22.5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
       <c r="B41" s="44" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E41" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="33.75">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="B42" s="44" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E42" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F42" s="47" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -6482,11 +6384,11 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="C5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="9"/>
+  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="9" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.140625" style="2" bestFit="1" customWidth="1"/>
@@ -6497,24 +6399,24 @@
     <col min="7" max="16384" width="7.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75">
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
       <c r="D1" s="47"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="11.25" customHeight="1">
+    <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="12" thickBot="1">
+    <row r="4" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -6534,9 +6436,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="11.25">
+    <row r="5" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="89" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="91"/>
@@ -6544,341 +6446,341 @@
       <c r="E5" s="20"/>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:6" ht="22.5">
+    <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="66" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="22.5">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="44" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F7" s="28"/>
     </row>
-    <row r="8" spans="1:6" ht="22.5">
+    <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="44" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="11.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="66"/>
       <c r="B9" s="44" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:6" ht="11.25">
+    <row r="10" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="66"/>
       <c r="B10" s="44" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F10" s="28"/>
     </row>
-    <row r="11" spans="1:6" ht="22.5">
+    <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="66"/>
       <c r="B11" s="44" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.600000000000001" customHeight="1">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="66"/>
       <c r="B12" s="44" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="11.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
       <c r="B13" s="44" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E13" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="28"/>
     </row>
-    <row r="14" spans="1:6" ht="11.25">
+    <row r="14" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="66"/>
       <c r="B14" s="44" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" spans="1:6" ht="11.25">
+    <row r="15" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="67"/>
       <c r="B15" s="45" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="E15" s="45" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="68"/>
     </row>
-    <row r="16" spans="1:6" ht="22.5">
+    <row r="16" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A16" s="66" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="E16" s="45" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="11.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
       <c r="B17" s="44" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E17" s="45" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="33.75">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="66"/>
       <c r="B18" s="44" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="11.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="66"/>
       <c r="B19" s="44" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="11.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
       <c r="B20" s="44" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="11.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="66"/>
       <c r="B21" s="44" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="11.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="66"/>
       <c r="B22" s="44" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F22" s="28"/>
     </row>
-    <row r="23" spans="1:6" ht="47.1" customHeight="1">
+    <row r="23" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="66"/>
       <c r="B23" s="44" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="22.5">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="66"/>
       <c r="B24" s="44" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E24" s="45" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="25.5" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="92" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B25" s="93"/>
       <c r="C25" s="94"/>
@@ -6886,108 +6788,108 @@
       <c r="E25" s="44"/>
       <c r="F25" s="28"/>
     </row>
-    <row r="26" spans="1:6" ht="11.25">
+    <row r="26" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>512</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>513</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>515</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>517</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="B30" s="44" t="s">
         <v>523</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="C30" s="33" t="s">
         <v>524</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="D30" s="33" t="s">
         <v>525</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="28"/>
-    </row>
-    <row r="27" spans="1:6" ht="22.5">
-      <c r="A27" s="12" t="s">
+      <c r="E30" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:6" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B31" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C31" s="33" t="s">
         <v>526</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="28"/>
-    </row>
-    <row r="28" spans="1:6" ht="22.5">
-      <c r="A28" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>529</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="1:6" ht="21.6" customHeight="1">
-      <c r="A29" s="52" t="s">
-        <v>531</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>531</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>533</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="28"/>
-    </row>
-    <row r="30" spans="1:6" ht="22.5">
-      <c r="A30" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>535</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>537</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" spans="1:6" ht="11.25">
-      <c r="A31" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>539</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>538</v>
-      </c>
       <c r="D31" s="33" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E31" s="33" t="s">
         <v>22</v>
@@ -7024,7 +6926,7 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.140625" style="24" customWidth="1"/>
     <col min="2" max="2" width="59.140625" style="24" customWidth="1"/>
@@ -7032,225 +6934,225 @@
     <col min="4" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="41.25" customHeight="1">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="25.5">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>0</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="24">
         <v>0</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="24">
         <v>0</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="38.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="24">
         <v>0</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="24">
         <v>1</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="24">
         <v>1</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="24">
         <v>1</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>1</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="24">
         <v>2</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="24">
         <v>3</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="24">
         <v>4</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="24">
         <v>4</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="24">
         <v>4</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="24">
         <v>4</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
         <v>4</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="24">
         <v>8</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="24">
         <v>777</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="24">
         <v>888</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="63.75">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
